--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A78A757-64F6-AB4C-A2CA-30C4B2AF9EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C2447-6D8A-5C43-A50E-884B582300F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="16000" firstSheet="1" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="leaders_commitees" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="145">
   <si>
     <t>Deborah</t>
   </si>
@@ -503,6 +503,18 @@
   </si>
   <si>
     <t>tomschmidt1516@gmail.com</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>magarettegeorges@gmail.com</t>
+  </si>
+  <si>
+    <t>on  outlook</t>
+  </si>
+  <si>
+    <t>dantilplus@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -602,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -616,7 +628,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -935,7 +951,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -976,7 +992,9 @@
       <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
@@ -991,7 +1009,9 @@
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
@@ -1023,7 +1043,9 @@
       <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
@@ -1038,7 +1060,9 @@
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
@@ -1104,7 +1128,9 @@
       <c r="D10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
@@ -1119,7 +1145,9 @@
       <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
@@ -1151,7 +1179,9 @@
       <c r="D13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
@@ -1166,7 +1196,9 @@
       <c r="D14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
@@ -1191,9 +1223,7 @@
       <c r="C16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>62</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="6"/>
     </row>
   </sheetData>
@@ -1221,7 +1251,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -1247,98 +1277,116 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="6" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1348,7 +1396,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1397,6 +1445,9 @@
       <c r="E2" t="s">
         <v>107</v>
       </c>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
@@ -1414,6 +1465,9 @@
       <c r="E3" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="F3" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
@@ -1431,6 +1485,9 @@
       <c r="E4" s="1" t="s">
         <v>110</v>
       </c>
+      <c r="F4" s="10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="10" t="s">
@@ -1448,6 +1505,9 @@
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F5" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -1464,6 +1524,9 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1481,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1491,7 +1554,7 @@
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28" customHeight="1">
@@ -1512,124 +1575,133 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="11"/>
       <c r="D2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="11"/>
       <c r="D3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="11"/>
       <c r="D4" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="11"/>
       <c r="D5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="A7" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="11"/>
       <c r="D7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="A8" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="A10" t="s">
         <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="11"/>
       <c r="D10" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>96</v>
       </c>
       <c r="B11" t="s">
@@ -1638,11 +1710,15 @@
       <c r="C11" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="11" t="s">
+      <c r="A12" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -1651,11 +1727,15 @@
       <c r="C12" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="11" t="s">
+      <c r="A13" t="s">
         <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1664,10 +1744,12 @@
       <c r="D13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="11" t="s">
+      <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1675,12 +1757,17 @@
       </c>
       <c r="D14" s="2" t="s">
         <v>138</v>
+      </c>
+      <c r="E14" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
     <hyperlink ref="D13" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{A3F573C6-7EFE-1548-BB0E-92B2C381D784}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{4CA32D9E-7EB2-B04A-B9D7-3FE5E35E4220}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808C2447-6D8A-5C43-A50E-884B582300F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06220231-557C-0146-9AD7-E8A44F0B1B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="leaders_commitees" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,12 @@
     <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId3"/>
     <sheet name="Project_teams" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leaders_commitees!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Project_teams!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'staff consultant'!$A$1:$E$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="148">
   <si>
     <t>Deborah</t>
   </si>
@@ -116,9 +122,6 @@
   </si>
   <si>
     <t>Haiti Liaison Secretary</t>
-  </si>
-  <si>
-    <t>nixon.sem@hanwash.org</t>
   </si>
   <si>
     <t>Andre</t>
@@ -515,6 +518,18 @@
   </si>
   <si>
     <t>dantilplus@gmail.com</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>nixon.seme@hanwash.org</t>
+  </si>
+  <si>
+    <t>outloook</t>
   </si>
 </sst>
 </file>
@@ -614,24 +629,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -948,285 +960,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1">
+      <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1">
+      <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="D15" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" tooltip="mailto:deborahyhowell7020@gmail.com" display="mailto:deborahyhowell7020@gmail.com" xr:uid="{E99857B2-6B2C-3E48-9318-9209BFD647D4}"/>
     <hyperlink ref="D3" r:id="rId2" tooltip="mailto:lindseycancino@gmail.com" display="mailto:lindseycancino@gmail.com" xr:uid="{69F7E1E5-FE79-134A-B721-EA01DC483500}"/>
@@ -1234,7 +1262,7 @@
     <hyperlink ref="D5" r:id="rId4" tooltip="mailto:RotarianBob@hometownu.biz" display="mailto:RotarianBob@hometownu.biz" xr:uid="{BF7D7B8A-B383-344A-B6BE-A60675C28810}"/>
     <hyperlink ref="D6" r:id="rId5" tooltip="mailto:dale@haitioutreach.org" display="mailto:dale@haitioutreach.org" xr:uid="{885B5F75-513B-3E43-8876-A2F34FDDB10E}"/>
     <hyperlink ref="D7" r:id="rId6" tooltip="mailto:mgay@cfetsa.com" display="mailto:mgay@cfetsa.com" xr:uid="{8913A809-2481-8A43-9B13-C0AD2AF030AE}"/>
-    <hyperlink ref="D8" r:id="rId7" tooltip="mailto:nixon.sem@hanwash.org" display="mailto:nixon.sem@hanwash.org" xr:uid="{4D0B6C34-3E69-0643-9ED0-FE3CC99281C3}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{4D0B6C34-3E69-0643-9ED0-FE3CC99281C3}"/>
     <hyperlink ref="D9" r:id="rId8" tooltip="mailto:andrewildaine@gmail.com" display="mailto:andrewildaine@gmail.com" xr:uid="{E0C549F6-DBB1-EB41-8141-3A034D91267A}"/>
     <hyperlink ref="D10" r:id="rId9" tooltip="mailto:sue@goldsen.com" display="mailto:sue@goldsen.com" xr:uid="{9E6B5964-F9FB-F441-A82F-F4036C709FA6}"/>
     <hyperlink ref="D11" r:id="rId10" tooltip="mailto:terrym@ridistrict6290.org" display="mailto:terrym@ridistrict6290.org" xr:uid="{A5D824B1-E852-4D46-869D-20D1280BAB97}"/>
@@ -1248,10 +1276,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -1260,130 +1289,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1">
+      <c r="A3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1">
+      <c r="A7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="6" t="s">
-        <v>141</v>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E8" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D2:D8"/>
   </mergeCells>
@@ -1393,10 +1429,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ACD411-58AB-3947-A3EB-DCD200358794}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1410,126 +1447,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:6" hidden="1">
+      <c r="A2" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
+      <c r="A3" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1">
+      <c r="A5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>141</v>
+      <c r="F6" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F6" xr:uid="{A9ACD411-58AB-3947-A3EB-DCD200358794}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" tooltip="mailto:fritz.pierrelouis@hanwash.org" display="mailto:fritz.pierrelouis@hanwash.org" xr:uid="{C42B1722-17AE-994B-846F-B3DCF5F2D108}"/>
     <hyperlink ref="E3" r:id="rId2" tooltip="mailto:alcenate@yahoo.fr" display="mailto:alcenate@yahoo.fr" xr:uid="{0710B1B1-E780-794C-A9E4-5595AAA378B3}"/>
@@ -1542,10 +1586,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1558,211 +1603,229 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="4"/>
+      <c r="D14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" t="s">
-        <v>141</v>
+      <c r="E14" s="4" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
     <hyperlink ref="D13" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06220231-557C-0146-9AD7-E8A44F0B1B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51141795-5A76-5B4E-94BA-06D052EEE4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>Steering Committee Chair</t>
-  </si>
-  <si>
-    <t>fritz.pierrelouis@hanwash.org </t>
   </si>
   <si>
     <t>Steering Committee Vice Chair</t>
@@ -530,6 +527,9 @@
   </si>
   <si>
     <t>outloook</t>
+  </si>
+  <si>
+    <t>fritz@magepa.com</t>
   </si>
 </sst>
 </file>
@@ -637,13 +637,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,7 +964,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -977,19 +977,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1006,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1">
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1">
@@ -1040,7 +1040,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1">
@@ -1057,10 +1057,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1">
@@ -1091,7 +1091,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1">
@@ -1105,10 +1105,10 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1">
@@ -1125,7 +1125,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1142,7 +1142,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1159,7 +1159,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1">
@@ -1176,7 +1176,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1">
@@ -1193,7 +1193,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1207,44 +1207,44 @@
         <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>147</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1268,6 @@
     <hyperlink ref="D11" r:id="rId10" tooltip="mailto:terrym@ridistrict6290.org" display="mailto:terrym@ridistrict6290.org" xr:uid="{A5D824B1-E852-4D46-869D-20D1280BAB97}"/>
     <hyperlink ref="D12" r:id="rId11" tooltip="mailto:tristamjr@gmail.com" display="mailto:tristamjr@gmail.com" xr:uid="{62FBFA30-46DF-BA4B-8765-4AB65265BD8A}"/>
     <hyperlink ref="D13" r:id="rId12" tooltip="mailto:wade@wadenomura.com" display="mailto:wade@wadenomura.com" xr:uid="{D885CC7F-BC72-6C46-B60B-309EE06ADD56}"/>
-    <hyperlink ref="D14" r:id="rId13" tooltip="mailto:fritz.pierrelouis@hanwash.org" display="mailto:fritz.pierrelouis@hanwash.org" xr:uid="{9B1AD8F7-F023-914F-A3A0-8925541D6737}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1290,126 +1289,126 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>142</v>
+        <v>62</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D8" s="10"/>
       <c r="E8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1447,123 +1446,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:6" hidden="1">
+      <c r="A2" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
+      <c r="A3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>94</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1">
+      <c r="A5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1">
-      <c r="A5" s="9" t="s">
+      <c r="B5" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>56</v>
+      <c r="F5" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>102</v>
+      <c r="D6" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>140</v>
+        <v>106</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1590,7 +1589,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1604,218 +1603,218 @@
   <sheetData>
     <row r="1" spans="1:5" ht="28" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>143</v>
+      <c r="D12" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51141795-5A76-5B4E-94BA-06D052EEE4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD8CEB4-3173-F948-B0CA-DE616FFD91CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="leaders_commitees" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -624,12 +624,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -645,6 +656,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -963,8 +976,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1128,7 +1141,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1142,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1196,7 +1209,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>147</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1">
@@ -1230,7 +1243,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>146</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1432,7 +1445,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1545,7 +1558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="8" t="s">
         <v>102</v>
       </c>
@@ -1562,7 +1575,7 @@
         <v>106</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1585,11 +1598,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1601,7 +1613,7 @@
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1">
+    <row r="1" spans="1:6" ht="28" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -1618,7 +1630,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -1633,7 +1645,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -1648,7 +1660,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -1663,7 +1675,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
@@ -1678,7 +1690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -1693,7 +1705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
@@ -1705,10 +1717,10 @@
         <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
@@ -1720,10 +1732,10 @@
         <v>138</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -1738,22 +1750,23 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
@@ -1770,7 +1783,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -1787,7 +1800,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1799,10 +1812,10 @@
         <v>134</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
         <v>93</v>
       </c>
@@ -1818,13 +1831,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
     <hyperlink ref="D13" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD8CEB4-3173-F948-B0CA-DE616FFD91CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D980A9-4FFC-E54A-830C-F6D5E88CA9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="leaders_commitees" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
   <si>
     <t>Deborah</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>fritz@magepa.com</t>
+  </si>
+  <si>
+    <t>+509 48 13 7815</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -653,11 +656,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -976,8 +978,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1327,7 +1329,7 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1344,7 +1346,7 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
@@ -1359,7 +1361,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -1374,7 +1376,7 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
@@ -1389,7 +1391,7 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
@@ -1404,7 +1406,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -1419,7 +1421,7 @@
       <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="4" t="s">
         <v>139</v>
       </c>
@@ -1598,10 +1600,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1637,7 +1640,9 @@
       <c r="B2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" t="s">
+        <v>148</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>115</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -1690,7 +1695,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -1705,7 +1710,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
@@ -1720,7 +1725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
@@ -1750,21 +1755,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:6" hidden="1">
+      <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="11"/>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
@@ -1800,7 +1805,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1831,7 +1836,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
+  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
     <hyperlink ref="D13" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D980A9-4FFC-E54A-830C-F6D5E88CA9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521AD22-EC5C-5643-96CD-8EFCE031D8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="leaders_commitees" sheetId="1" r:id="rId1"/>
@@ -978,8 +978,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1160,7 +1160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>139</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1">
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1603,8 +1603,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521AD22-EC5C-5643-96CD-8EFCE031D8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB585E-AC17-914B-9CEF-D79D5F2C89A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="16000" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
-    <sheet name="leaders_commitees" sheetId="1" r:id="rId1"/>
-    <sheet name="staff consultant" sheetId="2" r:id="rId2"/>
-    <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId3"/>
-    <sheet name="Project_teams" sheetId="4" r:id="rId4"/>
+    <sheet name="All" sheetId="5" r:id="rId1"/>
+    <sheet name="leaders_commitees" sheetId="1" r:id="rId2"/>
+    <sheet name="staff consultant" sheetId="2" r:id="rId3"/>
+    <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId4"/>
+    <sheet name="Project_teams" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">leaders_commitees!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Project_teams!$A$1:$E$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'staff consultant'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$B$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">leaders_commitees!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Project_teams!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'staff consultant'!$A$1:$E$8</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="158">
   <si>
     <t>Deborah</t>
   </si>
@@ -533,6 +535,33 @@
   </si>
   <si>
     <t>+509 48 13 7815</t>
+  </si>
+  <si>
+    <t>8/13</t>
+  </si>
+  <si>
+    <t>4/5</t>
+  </si>
+  <si>
+    <t>5/7</t>
+  </si>
+  <si>
+    <t>14/15</t>
+  </si>
+  <si>
+    <t>Jean Marie Naissant</t>
+  </si>
+  <si>
+    <t>Ernson Henry</t>
+  </si>
+  <si>
+    <t>Yvette Guerrier</t>
+  </si>
+  <si>
+    <t>Henry Claude Crepin</t>
+  </si>
+  <si>
+    <t>Raymond Joanel</t>
   </si>
 </sst>
 </file>
@@ -590,7 +619,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -657,15 +692,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFDA"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -974,12 +1023,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B0BCBF-03F7-9A47-A4B8-CDDBAA6A82E2}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" hidden="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1">
+      <c r="A12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1">
+      <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1">
+      <c r="A21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1">
+      <c r="A23" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1">
+      <c r="A24" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1">
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1">
+      <c r="A29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1">
+      <c r="A30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1">
+      <c r="A31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1">
+      <c r="A35" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1">
+      <c r="A36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1">
+      <c r="A37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1">
+      <c r="A39" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1">
+      <c r="A40" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1">
+      <c r="A41" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1">
+      <c r="A43" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B44" xr:uid="{F3B0BCBF-03F7-9A47-A4B8-CDDBAA6A82E2}">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1024,7 +1419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1041,7 +1436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1453,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1470,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1092,7 +1487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1109,7 +1504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1126,7 +1521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1538,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1177,7 +1572,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1194,7 +1589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1211,7 +1606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1228,7 +1623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -1245,7 +1640,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1">
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -1262,14 +1657,13 @@
         <v>55</v>
       </c>
     </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" tooltip="mailto:deborahyhowell7020@gmail.com" display="mailto:deborahyhowell7020@gmail.com" xr:uid="{E99857B2-6B2C-3E48-9318-9209BFD647D4}"/>
     <hyperlink ref="D3" r:id="rId2" tooltip="mailto:lindseycancino@gmail.com" display="mailto:lindseycancino@gmail.com" xr:uid="{69F7E1E5-FE79-134A-B721-EA01DC483500}"/>
@@ -1288,13 +1682,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -1319,7 +1712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -1329,14 +1722,14 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1346,12 +1739,12 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -1361,7 +1754,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -1376,12 +1769,12 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1391,12 +1784,12 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -1406,7 +1799,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -1421,19 +1814,18 @@
       <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="4" t="s">
         <v>139</v>
       </c>
     </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E8" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}"/>
   <mergeCells count="1">
     <mergeCell ref="D2:D8"/>
   </mergeCells>
@@ -1441,13 +1833,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ACD411-58AB-3947-A3EB-DCD200358794}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1480,7 +1871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>87</v>
       </c>
@@ -1500,7 +1891,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
         <v>91</v>
       </c>
@@ -1540,7 +1931,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
         <v>98</v>
       </c>
@@ -1560,7 +1951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
         <v>102</v>
       </c>
@@ -1580,14 +1971,13 @@
         <v>55</v>
       </c>
     </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F6" xr:uid="{A9ACD411-58AB-3947-A3EB-DCD200358794}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F6" xr:uid="{A9ACD411-58AB-3947-A3EB-DCD200358794}"/>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" tooltip="mailto:fritz.pierrelouis@hanwash.org" display="mailto:fritz.pierrelouis@hanwash.org" xr:uid="{C42B1722-17AE-994B-846F-B3DCF5F2D108}"/>
     <hyperlink ref="E3" r:id="rId2" tooltip="mailto:alcenate@yahoo.fr" display="mailto:alcenate@yahoo.fr" xr:uid="{0710B1B1-E780-794C-A9E4-5595AAA378B3}"/>
@@ -1598,13 +1988,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1662,10 +2051,10 @@
         <v>117</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -1695,7 +2084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -1710,7 +2099,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
@@ -1725,7 +2114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
@@ -1752,10 +2141,10 @@
         <v>120</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
@@ -1805,7 +2194,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1">
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -1835,14 +2224,13 @@
         <v>139</v>
       </c>
     </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
     <hyperlink ref="D13" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,22 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB585E-AC17-914B-9CEF-D79D5F2C89A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939725A-2201-C845-ACFB-FA09AB574A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="16000" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="1" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
     <sheet name="leaders_commitees" sheetId="1" r:id="rId2"/>
     <sheet name="staff consultant" sheetId="2" r:id="rId3"/>
     <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId4"/>
-    <sheet name="Project_teams" sheetId="4" r:id="rId5"/>
+    <sheet name="mayor" sheetId="6" r:id="rId5"/>
+    <sheet name="Project_teams" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$B$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">leaders_commitees!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Project_teams!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mayor!$A$1:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Project_teams!$A$1:$E$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'staff consultant'!$A$1:$E$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="178">
   <si>
     <t>Deborah</t>
   </si>
@@ -562,6 +564,66 @@
   </si>
   <si>
     <t>Raymond Joanel</t>
+  </si>
+  <si>
+    <t>+50932918761/+50948620579</t>
+  </si>
+  <si>
+    <t>raymondjoanel4862@gmail.com</t>
+  </si>
+  <si>
+    <t>Maire Terre-Neuve</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>+509 40027666</t>
+  </si>
+  <si>
+    <t>Maire Pignon</t>
+  </si>
+  <si>
+    <t>+509 32157300</t>
+  </si>
+  <si>
+    <t>guerrierivette@gmail.com</t>
+  </si>
+  <si>
+    <t>Maire Ferrier</t>
+  </si>
+  <si>
+    <t>+509 38 06 4195</t>
+  </si>
+  <si>
+    <t>Maire de Leogane</t>
+  </si>
+  <si>
+    <t>+509 43 30 8841 41971354/ 37665303</t>
+  </si>
+  <si>
+    <t>Maire de Cavaillon</t>
+  </si>
+  <si>
+    <t>HAS_mWater_account</t>
+  </si>
+  <si>
+    <t>email or phones</t>
+  </si>
+  <si>
+    <t>Mayors</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no</t>
+  </si>
+  <si>
+    <t>contacter</t>
   </si>
 </sst>
 </file>
@@ -619,7 +681,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,6 +697,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -693,13 +773,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1027,7 +1118,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A44"/>
     </sheetView>
   </sheetViews>
@@ -1054,26 +1145,26 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1086,42 +1177,42 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1134,10 +1225,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1150,26 +1241,26 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1182,18 +1273,18 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1206,7 +1297,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1221,12 +1312,12 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1239,10 +1330,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1271,26 +1362,26 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1319,10 +1410,10 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1345,7 +1436,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1355,7 +1446,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1371,10 +1462,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1419,7 +1511,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1528,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" hidden="1">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1487,7 +1579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1504,7 +1596,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" hidden="1">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1613,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" hidden="1">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1538,7 +1630,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" hidden="1">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +1647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" hidden="1">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1572,7 +1664,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" hidden="1">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1589,7 +1681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" hidden="1">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1606,7 +1698,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" hidden="1">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1623,7 +1715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" hidden="1">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -1640,7 +1732,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" hidden="1">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -1663,7 +1755,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}"/>
+  <autoFilter ref="A1:E16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" tooltip="mailto:deborahyhowell7020@gmail.com" display="mailto:deborahyhowell7020@gmail.com" xr:uid="{E99857B2-6B2C-3E48-9318-9209BFD647D4}"/>
     <hyperlink ref="D3" r:id="rId2" tooltip="mailto:lindseycancino@gmail.com" display="mailto:lindseycancino@gmail.com" xr:uid="{69F7E1E5-FE79-134A-B721-EA01DC483500}"/>
@@ -1684,6 +1782,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1712,7 +1811,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" hidden="1">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -1722,14 +1821,14 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="16" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" hidden="1">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1739,12 +1838,12 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" hidden="1">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -1754,7 +1853,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -1769,12 +1868,12 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" hidden="1">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1784,12 +1883,12 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" hidden="1">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -1799,7 +1898,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -1814,7 +1913,7 @@
       <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="4" t="s">
         <v>139</v>
       </c>
@@ -1825,7 +1924,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}"/>
+  <autoFilter ref="A1:E8" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="D2:D8"/>
   </mergeCells>
@@ -1838,7 +1943,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1927,8 +2032,8 @@
       <c r="E4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>139</v>
+      <c r="F4" s="23" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1989,18 +2094,154 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17">
+      <c r="A1" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1">
+      <c r="A4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1">
+      <c r="A6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E6" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="no"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{4826C9BF-B24D-D546-A0F2-F1D9099AEF6D}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{20AA6F51-C8B5-3E48-87CF-BE3A27B93B61}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
@@ -2022,7 +2263,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -2036,10 +2277,10 @@
         <v>115</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -2054,7 +2295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -2084,7 +2325,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -2099,7 +2340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
@@ -2114,7 +2355,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
@@ -2129,7 +2370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -2144,7 +2385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
@@ -2160,7 +2401,7 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
@@ -2174,10 +2415,10 @@
         <v>140</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -2191,10 +2432,10 @@
         <v>142</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -2230,7 +2471,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
+  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
     <hyperlink ref="D13" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2939725A-2201-C845-ACFB-FA09AB574A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD21B7-7564-0541-8D53-6608C247E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="1" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="4" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="181">
   <si>
     <t>Deborah</t>
   </si>
@@ -617,13 +617,22 @@
     <t>Name</t>
   </si>
   <si>
-    <t>2/5</t>
-  </si>
-  <si>
     <t xml:space="preserve"> no</t>
   </si>
   <si>
     <t>contacter</t>
+  </si>
+  <si>
+    <t>Placide Francois</t>
+  </si>
+  <si>
+    <t>1er Maire Ferrier</t>
+  </si>
+  <si>
+    <t>+50939410636</t>
+  </si>
+  <si>
+    <t>2/6</t>
   </si>
 </sst>
 </file>
@@ -758,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -777,9 +786,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -791,6 +797,11 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1465,7 +1476,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1821,7 +1832,7 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1838,7 +1849,7 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
@@ -1853,7 +1864,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -1868,7 +1879,7 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
@@ -1883,7 +1894,7 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
@@ -1898,7 +1909,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -1913,7 +1924,7 @@
       <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="4" t="s">
         <v>139</v>
       </c>
@@ -2032,8 +2043,8 @@
       <c r="E4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>177</v>
+      <c r="F4" s="22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2095,11 +2106,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:D28"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2112,16 +2122,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>172</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2136,7 +2146,7 @@
         <v>170</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>169</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2151,14 +2161,14 @@
         <v>168</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>167</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>155</v>
       </c>
@@ -2168,10 +2178,10 @@
       <c r="C4" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2183,14 +2193,14 @@
         <v>163</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>162</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>157</v>
       </c>
@@ -2200,26 +2210,35 @@
       <c r="C6" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>80</v>
       </c>
     </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="22" t="s">
-        <v>175</v>
+      <c r="A14" s="21" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E6" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="no"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E6" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{4826C9BF-B24D-D546-A0F2-F1D9099AEF6D}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{20AA6F51-C8B5-3E48-87CF-BE3A27B93B61}"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD21B7-7564-0541-8D53-6608C247E18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D4BF0-FC5C-2A42-AB86-A2701856C1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="4" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
@@ -767,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -797,11 +797,10 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1832,7 +1831,7 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="24" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1849,7 +1848,7 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
@@ -1864,7 +1863,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -1879,7 +1878,7 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
@@ -1894,7 +1893,7 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
@@ -1909,7 +1908,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -1924,7 +1923,7 @@
       <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4" t="s">
         <v>139</v>
       </c>
@@ -1964,7 +1963,7 @@
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2108,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2218,17 +2217,17 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="4" t="s">
         <v>178</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2252,7 +2251,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D4BF0-FC5C-2A42-AB86-A2701856C1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084E60BF-F4C0-FF4C-9E95-7C4BC2527B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="6" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
-    <sheet name="leaders_commitees" sheetId="1" r:id="rId2"/>
-    <sheet name="staff consultant" sheetId="2" r:id="rId3"/>
-    <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId4"/>
-    <sheet name="mayor" sheetId="6" r:id="rId5"/>
-    <sheet name="Project_teams" sheetId="4" r:id="rId6"/>
+    <sheet name="email-list" sheetId="7" r:id="rId2"/>
+    <sheet name="leaders_commitees" sheetId="1" r:id="rId3"/>
+    <sheet name="staff consultant" sheetId="2" r:id="rId4"/>
+    <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId5"/>
+    <sheet name="mayor" sheetId="6" r:id="rId6"/>
+    <sheet name="Project_teams" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$B$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">leaders_commitees!$A$1:$E$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mayor!$A$1:$E$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Project_teams!$A$1:$E$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'staff consultant'!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">leaders_commitees!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">mayor!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Project_teams!$A$1:$E$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'staff consultant'!$A$1:$E$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
   <si>
     <t>Deborah</t>
   </si>
@@ -539,18 +540,9 @@
     <t>+509 48 13 7815</t>
   </si>
   <si>
-    <t>8/13</t>
-  </si>
-  <si>
     <t>4/5</t>
   </si>
   <si>
-    <t>5/7</t>
-  </si>
-  <si>
-    <t>14/15</t>
-  </si>
-  <si>
     <t>Jean Marie Naissant</t>
   </si>
   <si>
@@ -590,9 +582,6 @@
     <t>guerrierivette@gmail.com</t>
   </si>
   <si>
-    <t>Maire Ferrier</t>
-  </si>
-  <si>
     <t>+509 38 06 4195</t>
   </si>
   <si>
@@ -633,6 +622,102 @@
   </si>
   <si>
     <t>2/6</t>
+  </si>
+  <si>
+    <t>steering committee leaders</t>
+  </si>
+  <si>
+    <t>Groupe</t>
+  </si>
+  <si>
+    <t>staff consultant</t>
+  </si>
+  <si>
+    <t>ambassadors</t>
+  </si>
+  <si>
+    <t>Project teams</t>
+  </si>
+  <si>
+    <t>emailed(y/n)</t>
+  </si>
+  <si>
+    <t>objectif</t>
+  </si>
+  <si>
+    <t>cpe cavaillon pignon ferrier</t>
+  </si>
+  <si>
+    <t>attachement</t>
+  </si>
+  <si>
+    <t>user guides</t>
+  </si>
+  <si>
+    <t>cpe guides</t>
+  </si>
+  <si>
+    <t>mini platform overview guides</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>email new account members</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>upass</t>
+  </si>
+  <si>
+    <t>deborah.howell</t>
+  </si>
+  <si>
+    <t>Hanwash1234</t>
+  </si>
+  <si>
+    <t>brian.hall</t>
+  </si>
+  <si>
+    <t>Veronique</t>
+  </si>
+  <si>
+    <t>Doyon</t>
+  </si>
+  <si>
+    <t>veronique.doyon</t>
+  </si>
+  <si>
+    <t>2 Maire Ferrier</t>
+  </si>
+  <si>
+    <t>upasse</t>
+  </si>
+  <si>
+    <t>jeanmariemaissant@gmail.com</t>
+  </si>
+  <si>
+    <t>yvette.guerrier</t>
+  </si>
+  <si>
+    <t>yvetteguerrier1972</t>
+  </si>
+  <si>
+    <t>joanel.raymond</t>
+  </si>
+  <si>
+    <t>raymondjoanel4862</t>
+  </si>
+  <si>
+    <t>jean.marie.naissant</t>
+  </si>
+  <si>
+    <t>jean.marie.brissau</t>
   </si>
 </sst>
 </file>
@@ -728,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -762,12 +847,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -780,7 +878,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -800,6 +897,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,26 +1269,26 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1187,42 +1301,42 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1235,10 +1349,10 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1251,26 +1365,26 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1283,18 +1397,18 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1307,7 +1421,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1322,12 +1436,12 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1340,10 +1454,10 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1372,26 +1486,26 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1420,10 +1534,10 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1437,27 +1551,27 @@
     </row>
     <row r="40" spans="1:2" hidden="1">
       <c r="A40" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:2" hidden="1">
       <c r="A41" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="12" t="s">
-        <v>155</v>
+      <c r="A42" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:2" hidden="1">
       <c r="A43" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="12" t="s">
-        <v>157</v>
+      <c r="A44" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1471,12 +1585,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2B6DFC-43B4-1940-87AF-203D5BFDEC6C}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D4:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1485,9 +1690,11 @@
     <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1503,8 +1710,14 @@
       <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1518,10 +1731,16 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1">
+        <v>55</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1538,7 +1757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1572,7 +1791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1589,7 +1808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1842,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1640,7 +1859,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1657,7 +1876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1674,7 +1893,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1691,7 +1910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
@@ -1708,7 +1927,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -1725,7 +1944,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1961,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -1760,18 +1979,10 @@
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="11" t="s">
-        <v>152</v>
-      </c>
+      <c r="C24" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" tooltip="mailto:deborahyhowell7020@gmail.com" display="mailto:deborahyhowell7020@gmail.com" xr:uid="{E99857B2-6B2C-3E48-9318-9209BFD647D4}"/>
     <hyperlink ref="D3" r:id="rId2" tooltip="mailto:lindseycancino@gmail.com" display="mailto:lindseycancino@gmail.com" xr:uid="{69F7E1E5-FE79-134A-B721-EA01DC483500}"/>
@@ -1790,13 +2001,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -1804,7 +2014,7 @@
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1820,8 +2030,14 @@
       <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1">
+      <c r="F1" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
@@ -1831,14 +2047,16 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1848,12 +2066,14 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
@@ -1863,12 +2083,14 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -1878,12 +2100,14 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1">
+        <v>55</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
@@ -1893,12 +2117,14 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
@@ -1908,12 +2134,14 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
@@ -1923,24 +2151,45 @@
       <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="D11" s="11" t="s">
-        <v>151</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="D11" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E9" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}"/>
   <mergeCells count="1">
     <mergeCell ref="D2:D8"/>
   </mergeCells>
@@ -1948,7 +2197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ACD411-58AB-3947-A3EB-DCD200358794}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -2042,8 +2291,8 @@
       <c r="E4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>176</v>
+      <c r="F4" s="21" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2087,8 +2336,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="11" t="s">
-        <v>150</v>
+      <c r="E16" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -2103,12 +2352,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E3" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2118,141 +2367,175 @@
     <col min="3" max="3" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="17">
+      <c r="A1" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="22" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="E7" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="21" t="s">
-        <v>180</v>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E6" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}"/>
+  <autoFilter ref="A1:E7" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}"/>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{4826C9BF-B24D-D546-A0F2-F1D9099AEF6D}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{20AA6F51-C8B5-3E48-87CF-BE3A27B93B61}"/>
+    <hyperlink ref="C2" r:id="rId3" tooltip="mailto:jeanmariemaissant@gmail.com" display="mailto:jeanmariemaissant@gmail.com" xr:uid="{AF60499E-1C7A-894D-BECF-9B9FD0740279}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2262,9 +2545,11 @@
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" customHeight="1">
+    <row r="1" spans="1:7" ht="28" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2280,15 +2565,21 @@
       <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1">
+      <c r="F1" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2297,8 +2588,10 @@
       <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -2312,8 +2605,10 @@
       <c r="E3" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -2327,8 +2622,10 @@
       <c r="E4" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
@@ -2340,10 +2637,16 @@
         <v>126</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1">
+        <v>55</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -2357,8 +2660,10 @@
       <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
@@ -2372,8 +2677,10 @@
       <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
@@ -2387,8 +2694,10 @@
       <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -2402,8 +2711,10 @@
       <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
@@ -2417,9 +2728,10 @@
       <c r="E10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" hidden="1">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
@@ -2435,8 +2747,10 @@
       <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -2452,8 +2766,10 @@
       <c r="E12" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -2467,8 +2783,10 @@
       <c r="E13" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
         <v>93</v>
       </c>
@@ -2482,11 +2800,11 @@
       <c r="E14" s="4" t="s">
         <v>139</v>
       </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="11" t="s">
-        <v>149</v>
-      </c>
+      <c r="D21" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084E60BF-F4C0-FF4C-9E95-7C4BC2527B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851CEC5-71EE-6145-9036-F5F992EF304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="6" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="1" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
@@ -865,7 +865,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -895,25 +895,20 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1588,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2B6DFC-43B4-1940-87AF-203D5BFDEC6C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1600,7 +1595,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1618,7 +1613,7 @@
         <v>177</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1630,7 +1625,7 @@
         <v>179</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
         <v>187</v>
       </c>
@@ -1640,8 +1635,8 @@
         <v>180</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1650,8 +1645,8 @@
         <v>181</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="1" t="s">
@@ -1662,7 +1657,7 @@
       <c r="C9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="24" t="s">
         <v>190</v>
       </c>
       <c r="E9" s="4"/>
@@ -1710,10 +1705,10 @@
       <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="25" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1733,10 +1728,10 @@
       <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="26" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2030,10 +2025,10 @@
       <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2047,7 +2042,7 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="29" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2066,7 +2061,7 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
@@ -2083,7 +2078,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -2100,11 +2095,11 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
@@ -2117,7 +2112,7 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
@@ -2134,7 +2129,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -2151,11 +2146,11 @@
       <c r="C8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="4" t="s">
         <v>196</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2163,22 +2158,22 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>199</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2386,10 +2381,10 @@
       <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="19" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2409,10 +2404,10 @@
       <c r="E2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2534,7 +2529,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -2565,10 +2560,10 @@
       <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2639,10 +2634,10 @@
       <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2800,7 +2795,7 @@
       <c r="E14" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="30"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="4"/>
     </row>
     <row r="21" spans="4:4">

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851CEC5-71EE-6145-9036-F5F992EF304A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA631AA-5CB0-A04F-AA39-9544C83844A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="1" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
@@ -1583,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2B6DFC-43B4-1940-87AF-203D5BFDEC6C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2351,8 +2351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="A1:G7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA631AA-5CB0-A04F-AA39-9544C83844A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D68B5C-66E0-4245-8501-618CD62407DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
@@ -24,10 +24,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$B$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">leaders_commitees!$A$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">leaders_commitees!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">mayor!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Project_teams!$A$1:$E$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'staff consultant'!$A$1:$E$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Project_teams!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'staff consultant'!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="210">
   <si>
     <t>Deborah</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>jean.marie.brissau</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -775,7 +778,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,8 +815,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -840,17 +849,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -865,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -898,9 +896,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -908,6 +904,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1584,7 +1585,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1612,8 +1613,10 @@
       <c r="A2" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1624,8 +1627,10 @@
       <c r="A3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="25"/>
       <c r="D3" s="4" t="s">
         <v>187</v>
       </c>
@@ -1634,9 +1639,11 @@
       <c r="A4" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1644,9 +1651,11 @@
       <c r="A5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="1" t="s">
@@ -1660,7 +1669,9 @@
       <c r="D9" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1675,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1705,33 +1716,33 @@
       <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1751,6 +1762,8 @@
       <c r="E3" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
@@ -1768,6 +1781,8 @@
       <c r="E4" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
@@ -1785,6 +1800,8 @@
       <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
@@ -1802,6 +1819,8 @@
       <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -1819,6 +1838,8 @@
       <c r="E7" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
@@ -1836,6 +1857,8 @@
       <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
@@ -1853,6 +1876,8 @@
       <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
@@ -1870,6 +1895,8 @@
       <c r="E10" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
@@ -1887,6 +1914,8 @@
       <c r="E11" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
@@ -1904,6 +1933,8 @@
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
@@ -1921,6 +1952,8 @@
       <c r="E13" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
@@ -1938,6 +1971,8 @@
       <c r="E14" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
@@ -1955,6 +1990,8 @@
       <c r="E15" s="4" t="s">
         <v>143</v>
       </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
@@ -1972,12 +2009,14 @@
       <c r="E16" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}"/>
+  <autoFilter ref="A1:G16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" tooltip="mailto:deborahyhowell7020@gmail.com" display="mailto:deborahyhowell7020@gmail.com" xr:uid="{E99857B2-6B2C-3E48-9318-9209BFD647D4}"/>
     <hyperlink ref="D3" r:id="rId2" tooltip="mailto:lindseycancino@gmail.com" display="mailto:lindseycancino@gmail.com" xr:uid="{69F7E1E5-FE79-134A-B721-EA01DC483500}"/>
@@ -2000,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -2042,7 +2081,7 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2061,7 +2100,7 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
@@ -2078,7 +2117,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -2095,7 +2134,7 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
@@ -2112,7 +2151,7 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
@@ -2129,7 +2168,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -2137,46 +2176,46 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="11" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2184,7 +2223,7 @@
       <c r="D11" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E9" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}"/>
+  <autoFilter ref="A1:G9" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}"/>
   <mergeCells count="1">
     <mergeCell ref="D2:D8"/>
   </mergeCells>
@@ -2197,7 +2236,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2351,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2401,13 +2440,13 @@
       <c r="D2" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="28" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="28" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2526,11 +2565,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2567,7 +2605,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -2586,7 +2624,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -2603,7 +2641,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -2620,28 +2658,28 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
@@ -2658,7 +2696,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" hidden="1">
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
@@ -2675,7 +2713,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
@@ -2692,7 +2730,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -2709,7 +2747,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
@@ -2726,7 +2764,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
@@ -2745,7 +2783,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>93</v>
       </c>
@@ -2764,7 +2802,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -2802,13 +2840,7 @@
       <c r="D21" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
     <hyperlink ref="D13" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D68B5C-66E0-4245-8501-618CD62407DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12768773-DBBD-204D-8731-B5AD5D7B451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="3" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="5" r:id="rId1"/>
@@ -699,9 +699,6 @@
     <t>upasse</t>
   </si>
   <si>
-    <t>jeanmariemaissant@gmail.com</t>
-  </si>
-  <si>
     <t>yvette.guerrier</t>
   </si>
   <si>
@@ -721,6 +718,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>jeanmarienaissant@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -897,6 +897,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -906,8 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1614,9 +1614,9 @@
         <v>177</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1628,9 +1628,9 @@
         <v>179</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="25"/>
+        <v>208</v>
+      </c>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
         <v>187</v>
       </c>
@@ -1640,10 +1640,10 @@
         <v>180</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1652,10 +1652,10 @@
         <v>181</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+        <v>208</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="1" t="s">
@@ -1670,7 +1670,7 @@
         <v>190</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1733,7 +1733,7 @@
       <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2039,7 +2039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2081,7 +2081,7 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2100,7 +2100,7 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
@@ -2117,7 +2117,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -2134,7 +2134,7 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="27"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -2390,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2435,18 +2435,18 @@
         <v>166</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2484,10 +2484,10 @@
         <v>80</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2524,10 +2524,10 @@
         <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2557,7 +2557,7 @@
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{4826C9BF-B24D-D546-A0F2-F1D9099AEF6D}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{20AA6F51-C8B5-3E48-87CF-BE3A27B93B61}"/>
-    <hyperlink ref="C2" r:id="rId3" tooltip="mailto:jeanmariemaissant@gmail.com" display="mailto:jeanmariemaissant@gmail.com" xr:uid="{AF60499E-1C7A-894D-BECF-9B9FD0740279}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{AF60499E-1C7A-894D-BECF-9B9FD0740279}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2568,7 +2568,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="B5:G5"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2659,7 +2659,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2673,7 +2673,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>195</v>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12768773-DBBD-204D-8731-B5AD5D7B451A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB79C52-6129-5B46-B87D-DF5BF233B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
@@ -778,7 +778,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -812,12 +812,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -897,7 +891,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1616,7 +1609,7 @@
       <c r="B2" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1630,7 +1623,7 @@
       <c r="B3" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="4" t="s">
         <v>187</v>
       </c>
@@ -1642,8 +1635,8 @@
       <c r="B4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1654,8 +1647,8 @@
       <c r="B5" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="1" t="s">
@@ -1686,8 +1679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:G2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1733,7 +1726,7 @@
       <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -2081,7 +2074,7 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2100,7 +2093,7 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
@@ -2117,7 +2110,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -2134,7 +2127,7 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2144,7 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
@@ -2168,7 +2161,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -2185,7 +2178,7 @@
       <c r="C8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="11" t="s">
         <v>55</v>
       </c>
@@ -2236,7 +2229,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2391,7 +2384,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2440,13 +2433,13 @@
       <c r="D2" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2568,7 +2561,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB79C52-6129-5B46-B87D-DF5BF233B27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79B6703-1B26-4F41-8A00-2EA374D348D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
-    <sheet name="All" sheetId="5" r:id="rId1"/>
-    <sheet name="email-list" sheetId="7" r:id="rId2"/>
-    <sheet name="leaders_commitees" sheetId="1" r:id="rId3"/>
-    <sheet name="staff consultant" sheetId="2" r:id="rId4"/>
-    <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId5"/>
-    <sheet name="mayor" sheetId="6" r:id="rId6"/>
-    <sheet name="Project_teams" sheetId="4" r:id="rId7"/>
+    <sheet name="email-list" sheetId="7" r:id="rId1"/>
+    <sheet name="leaders_commitees" sheetId="1" r:id="rId2"/>
+    <sheet name="staff consultant" sheetId="2" r:id="rId3"/>
+    <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId4"/>
+    <sheet name="mayor" sheetId="6" r:id="rId5"/>
+    <sheet name="Project_teams" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">All!$A$1:$B$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">leaders_commitees!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">mayor!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Project_teams!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'staff consultant'!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">leaders_commitees!$A$1:$G$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mayor!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Project_teams!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'staff consultant'!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="216">
   <si>
     <t>Deborah</t>
   </si>
@@ -510,9 +508,6 @@
     <t>tomschmidt1516@gmail.com</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>magarettegeorges@gmail.com</t>
   </si>
   <si>
@@ -609,9 +604,6 @@
     <t xml:space="preserve"> no</t>
   </si>
   <si>
-    <t>contacter</t>
-  </si>
-  <si>
     <t>Placide Francois</t>
   </si>
   <si>
@@ -721,13 +713,37 @@
   </si>
   <si>
     <t>jeanmarienaissant@gmail.com</t>
+  </si>
+  <si>
+    <t>Bob Chagrasulis</t>
+  </si>
+  <si>
+    <t>bobchagrasulis@aol.com</t>
+  </si>
+  <si>
+    <t>Butchler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erica </t>
+  </si>
+  <si>
+    <t>Gwinn</t>
+  </si>
+  <si>
+    <t>Steering Committee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neil </t>
+  </si>
+  <si>
+    <t>Van dyne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -777,8 +793,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,8 +837,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -852,12 +880,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -872,9 +911,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -885,13 +922,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -909,16 +949,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1227,358 +1258,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B0BCBF-03F7-9A47-A4B8-CDDBAA6A82E2}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" hidden="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" hidden="1">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" hidden="1">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" hidden="1">
-      <c r="A14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" hidden="1">
-      <c r="A18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" hidden="1">
-      <c r="A21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" hidden="1">
-      <c r="A23" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" hidden="1">
-      <c r="A24" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" hidden="1">
-      <c r="A27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" hidden="1">
-      <c r="A29" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" hidden="1">
-      <c r="A30" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" hidden="1">
-      <c r="A31" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" hidden="1">
-      <c r="A35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" hidden="1">
-      <c r="A36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" hidden="1">
-      <c r="A37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" hidden="1">
-      <c r="A39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" hidden="1">
-      <c r="A40" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" hidden="1">
-      <c r="A41" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" hidden="1">
-      <c r="A43" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B44" xr:uid="{F3B0BCBF-03F7-9A47-A4B8-CDDBAA6A82E2}">
-    <filterColumn colId="0">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2B6DFC-43B4-1940-87AF-203D5BFDEC6C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1589,81 +1273,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
-        <v>178</v>
+      <c r="A1" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="26"/>
+        <v>206</v>
+      </c>
+      <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
-        <v>188</v>
+        <v>206</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
+        <v>206</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1675,12 +1359,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1710,33 +1394,33 @@
         <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1845,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>55</v>
@@ -1959,7 +1643,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>55</v>
@@ -1978,10 +1662,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -1997,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>55</v>
@@ -2005,7 +1689,46 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="24" spans="3:3">
+    <row r="17" spans="1:5">
+      <c r="A17" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B19" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="C24" s="10"/>
     </row>
   </sheetData>
@@ -2028,12 +1751,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
@@ -2058,10 +1781,10 @@
         <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2074,8 +1797,8 @@
       <c r="C2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>141</v>
+      <c r="D2" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>80</v>
@@ -2093,7 +1816,7 @@
       <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="4" t="s">
         <v>80</v>
       </c>
@@ -2110,7 +1833,7 @@
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
@@ -2127,7 +1850,7 @@
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
@@ -2144,7 +1867,7 @@
       <c r="C6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
@@ -2161,7 +1884,7 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="4" t="s">
         <v>80</v>
       </c>
@@ -2178,38 +1901,38 @@
       <c r="C8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2224,12 +1947,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ACD411-58AB-3947-A3EB-DCD200358794}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A4" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2318,8 +2041,8 @@
       <c r="E4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>172</v>
+      <c r="F4" s="23" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2364,7 +2087,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="E16" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2379,12 +2102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2398,151 +2121,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17">
-      <c r="A1" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>168</v>
+      <c r="D1" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>201</v>
+        <v>166</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>165</v>
+        <v>207</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="16" t="s">
-        <v>163</v>
+      <c r="D3" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="17" t="s">
-        <v>159</v>
+      <c r="D5" s="15" t="s">
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>158</v>
+      <c r="E7" s="26" t="s">
+        <v>157</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
-        <v>176</v>
+      <c r="A14" s="18" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2556,12 +2279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2592,10 +2315,10 @@
         <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2606,7 +2329,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>115</v>
@@ -2638,67 +2361,67 @@
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>123</v>
+      <c r="B4" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
+      <c r="D4" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="1" t="s">
-        <v>122</v>
+      <c r="D7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>55</v>
@@ -2710,12 +2433,12 @@
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>137</v>
+      <c r="B8" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>55</v>
@@ -2728,11 +2451,11 @@
         <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>55</v>
@@ -2742,14 +2465,14 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>127</v>
+        <v>113</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="7" t="s">
-        <v>129</v>
+      <c r="D10" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>55</v>
@@ -2762,13 +2485,11 @@
         <v>94</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>55</v>
@@ -2778,16 +2499,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>132</v>
+        <v>94</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>55</v>
@@ -2799,12 +2520,14 @@
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3" t="s">
-        <v>134</v>
+      <c r="B13" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>55</v>
@@ -2817,28 +2540,46 @@
         <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="10"/>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
+  <autoFilter ref="A1:G15" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{A3F573C6-7EFE-1548-BB0E-92B2C381D784}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{4CA32D9E-7EB2-B04A-B9D7-3FE5E35E4220}"/>
+    <hyperlink ref="D11" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{A3F573C6-7EFE-1548-BB0E-92B2C381D784}"/>
+    <hyperlink ref="D13" r:id="rId4" xr:uid="{4CA32D9E-7EB2-B04A-B9D7-3FE5E35E4220}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{38627C3D-4F22-BA4A-84F6-71B0AE5E87F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79B6703-1B26-4F41-8A00-2EA374D348D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F2428-AC1F-A246-9A34-52E816842072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">leaders_commitees!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mayor!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Project_teams!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Project_teams!$A$1:$H$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'staff consultant'!$A$1:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="217">
   <si>
     <t>Deborah</t>
   </si>
@@ -649,9 +649,6 @@
     <t>cpe guides</t>
   </si>
   <si>
-    <t>mini platform overview guides</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -737,6 +734,12 @@
   </si>
   <si>
     <t>Van dyne</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>project monitoring guides</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -944,6 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1262,7 +1266,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1291,7 +1295,7 @@
         <v>175</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>182</v>
@@ -1305,7 +1309,7 @@
         <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="4" t="s">
@@ -1317,11 +1321,11 @@
         <v>178</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="28" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1329,25 +1333,25 @@
         <v>179</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="28"/>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>188</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1394,10 +1398,10 @@
         <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1417,10 +1421,10 @@
         <v>55</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>192</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1691,7 +1695,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>40</v>
@@ -1702,13 +1706,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18" t="s">
         <v>211</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="24" t="s">
         <v>212</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>213</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>55</v>
@@ -1716,13 +1720,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" t="s">
         <v>214</v>
       </c>
-      <c r="B19" t="s">
-        <v>215</v>
-      </c>
       <c r="C19" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>55</v>
@@ -1781,10 +1785,10 @@
         <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1906,18 +1910,18 @@
         <v>55</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>196</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>75</v>
@@ -1929,10 +1933,10 @@
         <v>55</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2137,10 +2141,10 @@
         <v>166</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2151,7 +2155,7 @@
         <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>164</v>
@@ -2160,10 +2164,10 @@
         <v>55</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2188,7 +2192,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>161</v>
@@ -2200,10 +2204,10 @@
         <v>80</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2240,10 +2244,10 @@
         <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2281,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D15" sqref="D3:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2298,7 +2302,7 @@
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28" customHeight="1">
+    <row r="1" spans="1:8" ht="28" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2315,13 +2319,16 @@
         <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -2339,8 +2346,11 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
@@ -2356,25 +2366,31 @@
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
@@ -2390,8 +2406,11 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
         <v>112</v>
       </c>
@@ -2406,13 +2425,16 @@
         <v>55</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>192</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>113</v>
       </c>
@@ -2428,8 +2450,11 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>113</v>
       </c>
@@ -2445,8 +2470,11 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>113</v>
       </c>
@@ -2462,8 +2490,11 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
         <v>113</v>
       </c>
@@ -2479,8 +2510,11 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
@@ -2496,8 +2530,11 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>94</v>
       </c>
@@ -2515,8 +2552,11 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
@@ -2534,8 +2574,11 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
         <v>93</v>
       </c>
@@ -2551,8 +2594,11 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
         <v>93</v>
       </c>
@@ -2568,12 +2614,15 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G15" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
+  <autoFilter ref="A1:H15" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
   <hyperlinks>
     <hyperlink ref="D11" r:id="rId1" tooltip="mailto:sherry@adobie.com" display="mailto:sherry@adobie.com" xr:uid="{2F2738DB-A5DC-C841-B166-687FCF6C1562}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{1784C06B-B663-A34E-832D-5B5F9F581A9B}"/>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F2428-AC1F-A246-9A34-52E816842072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54CCAE-DFC2-8C44-B88D-A9E77AE12815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
@@ -899,7 +899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -947,7 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2288,7 +2287,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D3:D15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2324,7 +2323,7 @@
       <c r="G1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="1" t="s">
         <v>215</v>
       </c>
     </row>

--- a/task/TOP_TARGETS.xlsx
+++ b/task/TOP_TARGETS.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F54CCAE-DFC2-8C44-B88D-A9E77AE12815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3955A92-6B3A-4347-BC2B-4BE63DE7775F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
+    <workbookView xWindow="12800" yWindow="0" windowWidth="12800" windowHeight="16000" firstSheet="1" activeTab="2" xr2:uid="{EC7AEB5B-A1BD-6F43-A7A1-7D858BCB7C93}"/>
   </bookViews>
   <sheets>
     <sheet name="email-list" sheetId="7" r:id="rId1"/>
     <sheet name="leaders_commitees" sheetId="1" r:id="rId2"/>
-    <sheet name="staff consultant" sheetId="2" r:id="rId3"/>
-    <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId4"/>
-    <sheet name="mayor" sheetId="6" r:id="rId5"/>
-    <sheet name="Project_teams" sheetId="4" r:id="rId6"/>
+    <sheet name="all" sheetId="8" r:id="rId3"/>
+    <sheet name="staff consultant" sheetId="2" r:id="rId4"/>
+    <sheet name="hanwash_ambassadors" sheetId="3" r:id="rId5"/>
+    <sheet name="mayor" sheetId="6" r:id="rId6"/>
+    <sheet name="Project_teams" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">leaders_commitees!$A$1:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">mayor!$A$1:$E$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Project_teams!$A$1:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'staff consultant'!$A$1:$G$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">all!$A$1:$B$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">hanwash_ambassadors!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">leaders_commitees!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">mayor!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Project_teams!$A$1:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'staff consultant'!$A$1:$H$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="255">
   <si>
     <t>Deborah</t>
   </si>
@@ -535,9 +537,6 @@
     <t>+509 48 13 7815</t>
   </si>
   <si>
-    <t>4/5</t>
-  </si>
-  <si>
     <t>Jean Marie Naissant</t>
   </si>
   <si>
@@ -740,13 +739,130 @@
   </si>
   <si>
     <t>project monitoring guides</t>
+  </si>
+  <si>
+    <t>18+8</t>
+  </si>
+  <si>
+    <t>26+3</t>
+  </si>
+  <si>
+    <t>29+5</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>Deborah Howell</t>
+  </si>
+  <si>
+    <t>Lindsey Cancino</t>
+  </si>
+  <si>
+    <t>Dale Snyder</t>
+  </si>
+  <si>
+    <t>Marlene Gay</t>
+  </si>
+  <si>
+    <t>Nixon Seme</t>
+  </si>
+  <si>
+    <t>Andre Wildaine</t>
+  </si>
+  <si>
+    <t>Wade Nomura</t>
+  </si>
+  <si>
+    <t>BARB SPANGLER</t>
+  </si>
+  <si>
+    <t>Duckenson Flerency</t>
+  </si>
+  <si>
+    <t>Alex Bonhomme</t>
+  </si>
+  <si>
+    <t>Caroline Noel</t>
+  </si>
+  <si>
+    <t>Elodie Herard</t>
+  </si>
+  <si>
+    <t>Brian Hall</t>
+  </si>
+  <si>
+    <t>Veronique Doyon</t>
+  </si>
+  <si>
+    <t>Alexandro Disla</t>
+  </si>
+  <si>
+    <t>Dawn Jhonson</t>
+  </si>
+  <si>
+    <t>Alcenat Ditoine</t>
+  </si>
+  <si>
+    <t>Erica Gwynn</t>
+  </si>
+  <si>
+    <t>Jean Jackendy</t>
+  </si>
+  <si>
+    <t>Cleantus Jean Junior</t>
+  </si>
+  <si>
+    <t>Joanel Raymond</t>
+  </si>
+  <si>
+    <t>Lizz Goggins</t>
+  </si>
+  <si>
+    <t>Frit Pierre-Louis</t>
+  </si>
+  <si>
+    <t>margarette Georges</t>
+  </si>
+  <si>
+    <t>Butschler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neil Van </t>
+  </si>
+  <si>
+    <t>Robert Leger</t>
+  </si>
+  <si>
+    <t>Robert Hobaugh</t>
+  </si>
+  <si>
+    <t>Ryan Rowe</t>
+  </si>
+  <si>
+    <t>Susi Goldsen</t>
+  </si>
+  <si>
+    <t>Terry Miller</t>
+  </si>
+  <si>
+    <t>Jhonson Tristam</t>
+  </si>
+  <si>
+    <t>D7020</t>
+  </si>
+  <si>
+    <t>nomatter</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -802,8 +918,16 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -843,6 +967,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +1041,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -935,6 +1077,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1277,80 +1423,80 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>182</v>
+        <v>204</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="27"/>
+        <v>204</v>
+      </c>
+      <c r="C3" s="31"/>
       <c r="D3" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
-        <v>216</v>
+        <v>204</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28"/>
+        <v>204</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="C9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>187</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1364,23 +1510,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1388,386 +1534,814 @@
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="12" t="str">
+        <f>_xlfn.CONCAT(A2," ",B2)</f>
+        <v>Deborah Howell</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="12" t="str">
+        <f t="shared" ref="C3:C19" si="0">_xlfn.CONCAT(A3," ",B3)</f>
+        <v>Lindsey Cancino</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Liz  Goggins</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Bob Hobaugh</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Dale Snyder</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Marlene Gay</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Nixon Seme</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Andre Wildaine</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sue Goldsen</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Terry  Miller</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Tristam  Johnson</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Wade Nomura</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fritz Pierre-Louis</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>BARB SPANGLER</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Covington Cynde</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Butchler </v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="24" t="s">
+      <c r="B18" t="s">
         <v>210</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Erica  Gwinn</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="F18" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="24" t="s">
+      <c r="B19" t="s">
         <v>213</v>
       </c>
-      <c r="B19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="10"/>
+      <c r="C19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>Neil  Van dyne</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="C20" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="D24" s="10">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}"/>
+  <autoFilter ref="A1:H16" xr:uid="{E82BFB58-FADC-334D-B6FD-5B05560C3B07}"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="mailto:deborahyhowell7020@gmail.com" display="mailto:deborahyhowell7020@gmail.com" xr:uid="{E99857B2-6B2C-3E48-9318-9209BFD647D4}"/>
-    <hyperlink ref="D3" r:id="rId2" tooltip="mailto:lindseycancino@gmail.com" display="mailto:lindseycancino@gmail.com" xr:uid="{69F7E1E5-FE79-134A-B721-EA01DC483500}"/>
-    <hyperlink ref="D4" r:id="rId3" tooltip="mailto:liz.goggins@hanwash.org" display="mailto:liz.goggins@hanwash.org" xr:uid="{B68E9DA9-5DAF-654C-91F2-89C20CFBEB99}"/>
-    <hyperlink ref="D5" r:id="rId4" tooltip="mailto:RotarianBob@hometownu.biz" display="mailto:RotarianBob@hometownu.biz" xr:uid="{BF7D7B8A-B383-344A-B6BE-A60675C28810}"/>
-    <hyperlink ref="D6" r:id="rId5" tooltip="mailto:dale@haitioutreach.org" display="mailto:dale@haitioutreach.org" xr:uid="{885B5F75-513B-3E43-8876-A2F34FDDB10E}"/>
-    <hyperlink ref="D7" r:id="rId6" tooltip="mailto:mgay@cfetsa.com" display="mailto:mgay@cfetsa.com" xr:uid="{8913A809-2481-8A43-9B13-C0AD2AF030AE}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{4D0B6C34-3E69-0643-9ED0-FE3CC99281C3}"/>
-    <hyperlink ref="D9" r:id="rId8" tooltip="mailto:andrewildaine@gmail.com" display="mailto:andrewildaine@gmail.com" xr:uid="{E0C549F6-DBB1-EB41-8141-3A034D91267A}"/>
-    <hyperlink ref="D10" r:id="rId9" tooltip="mailto:sue@goldsen.com" display="mailto:sue@goldsen.com" xr:uid="{9E6B5964-F9FB-F441-A82F-F4036C709FA6}"/>
-    <hyperlink ref="D11" r:id="rId10" tooltip="mailto:terrym@ridistrict6290.org" display="mailto:terrym@ridistrict6290.org" xr:uid="{A5D824B1-E852-4D46-869D-20D1280BAB97}"/>
-    <hyperlink ref="D12" r:id="rId11" tooltip="mailto:tristamjr@gmail.com" display="mailto:tristamjr@gmail.com" xr:uid="{62FBFA30-46DF-BA4B-8765-4AB65265BD8A}"/>
-    <hyperlink ref="D13" r:id="rId12" tooltip="mailto:wade@wadenomura.com" display="mailto:wade@wadenomura.com" xr:uid="{D885CC7F-BC72-6C46-B60B-309EE06ADD56}"/>
+    <hyperlink ref="E2" r:id="rId1" tooltip="mailto:deborahyhowell7020@gmail.com" display="mailto:deborahyhowell7020@gmail.com" xr:uid="{E99857B2-6B2C-3E48-9318-9209BFD647D4}"/>
+    <hyperlink ref="E3" r:id="rId2" tooltip="mailto:lindseycancino@gmail.com" display="mailto:lindseycancino@gmail.com" xr:uid="{69F7E1E5-FE79-134A-B721-EA01DC483500}"/>
+    <hyperlink ref="E4" r:id="rId3" tooltip="mailto:liz.goggins@hanwash.org" display="mailto:liz.goggins@hanwash.org" xr:uid="{B68E9DA9-5DAF-654C-91F2-89C20CFBEB99}"/>
+    <hyperlink ref="E5" r:id="rId4" tooltip="mailto:RotarianBob@hometownu.biz" display="mailto:RotarianBob@hometownu.biz" xr:uid="{BF7D7B8A-B383-344A-B6BE-A60675C28810}"/>
+    <hyperlink ref="E6" r:id="rId5" tooltip="mailto:dale@haitioutreach.org" display="mailto:dale@haitioutreach.org" xr:uid="{885B5F75-513B-3E43-8876-A2F34FDDB10E}"/>
+    <hyperlink ref="E7" r:id="rId6" tooltip="mailto:mgay@cfetsa.com" display="mailto:mgay@cfetsa.com" xr:uid="{8913A809-2481-8A43-9B13-C0AD2AF030AE}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{4D0B6C34-3E69-0643-9ED0-FE3CC99281C3}"/>
+    <hyperlink ref="E9" r:id="rId8" tooltip="mailto:andrewildaine@gmail.com" display="mailto:andrewildaine@gmail.com" xr:uid="{E0C549F6-DBB1-EB41-8141-3A034D91267A}"/>
+    <hyperlink ref="E10" r:id="rId9" tooltip="mailto:sue@goldsen.com" display="mailto:sue@goldsen.com" xr:uid="{9E6B5964-F9FB-F441-A82F-F4036C709FA6}"/>
+    <hyperlink ref="E11" r:id="rId10" tooltip="mailto:terrym@ridistrict6290.org" display="mailto:terrym@ridistrict6290.org" xr:uid="{A5D824B1-E852-4D46-869D-20D1280BAB97}"/>
+    <hyperlink ref="E12" r:id="rId11" tooltip="mailto:tristamjr@gmail.com" display="mailto:tristamjr@gmail.com" xr:uid="{62FBFA30-46DF-BA4B-8765-4AB65265BD8A}"/>
+    <hyperlink ref="E13" r:id="rId12" tooltip="mailto:wade@wadenomura.com" display="mailto:wade@wadenomura.com" xr:uid="{D885CC7F-BC72-6C46-B60B-309EE06ADD56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5D5CE6-30A4-7B46-ACAA-1177E085A53D}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19">
+      <c r="A1" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="4"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="4"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B51" xr:uid="{9E5D5CE6-30A4-7B46-ACAA-1177E085A53D}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -1775,187 +2349,232 @@
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="4" t="str">
+        <f>_xlfn.CONCAT(A2," ",B2)</f>
+        <v>Ryan  Rowe</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="E2" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="4" t="str">
+        <f t="shared" ref="C3:C9" si="0">_xlfn.CONCAT(A3," ",B3)</f>
+        <v>Duckenson Flerency</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Alex Bonhomme</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Caroline Noel</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Alexandro  Disla</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Elodie Herard</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Brian Hall</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="E8" s="34"/>
       <c r="F8" s="11" t="s">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Veronique Doyon</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="D11" s="10"/>
+      <c r="H9" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G9" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}"/>
+  <autoFilter ref="A1:H9" xr:uid="{2C8EFA09-7872-5F4B-93DB-214017F34D64}"/>
   <mergeCells count="1">
-    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="E2:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ACD411-58AB-3947-A3EB-DCD200358794}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A2:A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2089,8 +2708,14 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="E16" s="10" t="s">
-        <v>148</v>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2105,12 +2730,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38A8782-8EAD-7F4B-AC45-65474AFC12D0}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2125,150 +2750,160 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17">
       <c r="A1" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>85</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>55</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
+    <row r="12" spans="1:7">
+      <c r="D12">
+        <v>5</v>
+      </c>
+    </row>
     <row r="14" spans="1:7">
       <c r="A14" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2282,12 +2917,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2318,13 +2953,13 @@
         <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2346,7 +2981,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2374,11 +3009,11 @@
         <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>80</v>
@@ -2424,13 +3059,13 @@
         <v>55</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2552,7 +3187,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2574,7 +3209,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2617,8 +3252,14 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="4:4">
+    <row r="22" spans="4:5">
       <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="E23">
+        <f>34+14</f>
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H15" xr:uid="{6259A1DC-D140-7C4B-AEDA-60CA72DE433C}"/>
